--- a/Exam attempt/Exam Attempt2 (1).xlsx
+++ b/Exam attempt/Exam Attempt2 (1).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyber\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stratumhr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BF8ECB-C570-459D-93CA-6385A7E0E0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$D$1:$D$131</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2'!$D$1:$D$132</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="531">
   <si>
     <t>Slno</t>
   </si>
@@ -1598,12 +1599,39 @@
   </si>
   <si>
     <t>WPA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source IP address </t>
+  </si>
+  <si>
+    <t>Stretching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrative safeguards </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNS spoofing </t>
+  </si>
+  <si>
+    <t>The unauthorized disclosure, modification, or use of sensitive data</t>
+  </si>
+  <si>
+    <t>Non-repudiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network layer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1933,7 +1961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3851,17 +3879,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D131"/>
+  <autoFilter ref="D1:D131" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -5785,17 +5813,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D132"/>
+  <autoFilter ref="D1:D132" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5825,9 +5853,12 @@
       <c r="B2" t="s">
         <v>246</v>
       </c>
+      <c r="C2" t="s">
+        <v>246</v>
+      </c>
       <c r="D2" t="b">
         <f>IF(B2=C2,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5837,9 +5868,12 @@
       <c r="B3" t="s">
         <v>247</v>
       </c>
+      <c r="C3" t="s">
+        <v>247</v>
+      </c>
       <c r="D3" t="b">
         <f t="shared" ref="D3:D66" si="0">IF(B3=C3,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5849,6 +5883,9 @@
       <c r="B4" t="s">
         <v>248</v>
       </c>
+      <c r="C4" t="s">
+        <v>522</v>
+      </c>
       <c r="D4" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5861,6 +5898,9 @@
       <c r="B5" t="s">
         <v>249</v>
       </c>
+      <c r="C5" t="s">
+        <v>523</v>
+      </c>
       <c r="D5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5873,9 +5913,12 @@
       <c r="B6" t="s">
         <v>250</v>
       </c>
+      <c r="C6" t="s">
+        <v>250</v>
+      </c>
       <c r="D6" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5885,9 +5928,12 @@
       <c r="B7" t="s">
         <v>267</v>
       </c>
+      <c r="C7" t="s">
+        <v>267</v>
+      </c>
       <c r="D7" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5897,9 +5943,12 @@
       <c r="B8" t="s">
         <v>251</v>
       </c>
+      <c r="C8" t="s">
+        <v>251</v>
+      </c>
       <c r="D8" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5909,9 +5958,12 @@
       <c r="B9" t="s">
         <v>252</v>
       </c>
+      <c r="C9" t="s">
+        <v>252</v>
+      </c>
       <c r="D9" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5921,6 +5973,9 @@
       <c r="B10" t="s">
         <v>253</v>
       </c>
+      <c r="C10" t="s">
+        <v>524</v>
+      </c>
       <c r="D10" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5933,9 +5988,12 @@
       <c r="B11" t="s">
         <v>254</v>
       </c>
+      <c r="C11" t="s">
+        <v>254</v>
+      </c>
       <c r="D11" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5945,6 +6003,9 @@
       <c r="B12" t="s">
         <v>255</v>
       </c>
+      <c r="C12" t="s">
+        <v>525</v>
+      </c>
       <c r="D12" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5957,9 +6018,12 @@
       <c r="B13" t="s">
         <v>256</v>
       </c>
+      <c r="C13" t="s">
+        <v>256</v>
+      </c>
       <c r="D13" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5969,9 +6033,12 @@
       <c r="B14" t="s">
         <v>257</v>
       </c>
+      <c r="C14" t="s">
+        <v>257</v>
+      </c>
       <c r="D14" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5981,9 +6048,12 @@
       <c r="B15" t="s">
         <v>258</v>
       </c>
+      <c r="C15" t="s">
+        <v>258</v>
+      </c>
       <c r="D15" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5993,9 +6063,12 @@
       <c r="B16">
         <v>2</v>
       </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
       <c r="D16" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6005,9 +6078,12 @@
       <c r="B17" t="s">
         <v>259</v>
       </c>
+      <c r="C17" t="s">
+        <v>259</v>
+      </c>
       <c r="D17" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6017,9 +6093,12 @@
       <c r="B18" t="s">
         <v>260</v>
       </c>
+      <c r="C18" t="s">
+        <v>260</v>
+      </c>
       <c r="D18" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6029,9 +6108,12 @@
       <c r="B19" t="s">
         <v>261</v>
       </c>
+      <c r="C19" t="s">
+        <v>261</v>
+      </c>
       <c r="D19" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -6041,9 +6123,12 @@
       <c r="B20" t="s">
         <v>262</v>
       </c>
+      <c r="C20" t="s">
+        <v>262</v>
+      </c>
       <c r="D20" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6053,9 +6138,12 @@
       <c r="B21" t="s">
         <v>263</v>
       </c>
+      <c r="C21" t="s">
+        <v>263</v>
+      </c>
       <c r="D21" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6065,9 +6153,12 @@
       <c r="B22" t="s">
         <v>264</v>
       </c>
+      <c r="C22" t="s">
+        <v>264</v>
+      </c>
       <c r="D22" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -6077,9 +6168,12 @@
       <c r="B23" t="s">
         <v>265</v>
       </c>
+      <c r="C23" t="s">
+        <v>265</v>
+      </c>
       <c r="D23" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -6089,9 +6183,12 @@
       <c r="B24" t="s">
         <v>266</v>
       </c>
+      <c r="C24" t="s">
+        <v>266</v>
+      </c>
       <c r="D24" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -6101,6 +6198,9 @@
       <c r="B25" t="s">
         <v>268</v>
       </c>
+      <c r="C25" t="s">
+        <v>526</v>
+      </c>
       <c r="D25" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6125,9 +6225,12 @@
       <c r="B27" t="s">
         <v>270</v>
       </c>
+      <c r="C27" t="s">
+        <v>270</v>
+      </c>
       <c r="D27" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -6137,9 +6240,12 @@
       <c r="B28" t="s">
         <v>271</v>
       </c>
+      <c r="C28" t="s">
+        <v>271</v>
+      </c>
       <c r="D28" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -6149,6 +6255,9 @@
       <c r="B29" t="s">
         <v>272</v>
       </c>
+      <c r="C29" t="s">
+        <v>527</v>
+      </c>
       <c r="D29" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6161,9 +6270,12 @@
       <c r="B30" t="s">
         <v>273</v>
       </c>
+      <c r="C30" t="s">
+        <v>273</v>
+      </c>
       <c r="D30" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -6173,9 +6285,12 @@
       <c r="B31" t="s">
         <v>274</v>
       </c>
+      <c r="C31" t="s">
+        <v>274</v>
+      </c>
       <c r="D31" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -6185,6 +6300,9 @@
       <c r="B32" t="s">
         <v>275</v>
       </c>
+      <c r="C32" t="s">
+        <v>528</v>
+      </c>
       <c r="D32" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6197,9 +6315,12 @@
       <c r="B33" t="s">
         <v>276</v>
       </c>
+      <c r="C33" t="s">
+        <v>276</v>
+      </c>
       <c r="D33" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -6209,9 +6330,12 @@
       <c r="B34" t="s">
         <v>277</v>
       </c>
+      <c r="C34" t="s">
+        <v>277</v>
+      </c>
       <c r="D34" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -6233,9 +6357,12 @@
       <c r="B36" t="s">
         <v>279</v>
       </c>
+      <c r="C36" t="s">
+        <v>279</v>
+      </c>
       <c r="D36" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -6245,9 +6372,12 @@
       <c r="B37" t="s">
         <v>280</v>
       </c>
+      <c r="C37" t="s">
+        <v>280</v>
+      </c>
       <c r="D37" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -6257,9 +6387,12 @@
       <c r="B38" t="s">
         <v>281</v>
       </c>
+      <c r="C38" t="s">
+        <v>281</v>
+      </c>
       <c r="D38" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -6269,9 +6402,12 @@
       <c r="B39" t="s">
         <v>282</v>
       </c>
+      <c r="C39" t="s">
+        <v>282</v>
+      </c>
       <c r="D39" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -6281,9 +6417,12 @@
       <c r="B40" t="s">
         <v>283</v>
       </c>
+      <c r="C40" t="s">
+        <v>283</v>
+      </c>
       <c r="D40" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -6293,9 +6432,12 @@
       <c r="B41" t="s">
         <v>284</v>
       </c>
+      <c r="C41" t="s">
+        <v>284</v>
+      </c>
       <c r="D41" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -6305,6 +6447,9 @@
       <c r="B42" t="s">
         <v>32</v>
       </c>
+      <c r="C42" t="s">
+        <v>197</v>
+      </c>
       <c r="D42" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6317,6 +6462,9 @@
       <c r="B43" t="s">
         <v>285</v>
       </c>
+      <c r="C43" t="s">
+        <v>529</v>
+      </c>
       <c r="D43" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6329,9 +6477,12 @@
       <c r="B44" t="s">
         <v>286</v>
       </c>
+      <c r="C44" t="s">
+        <v>286</v>
+      </c>
       <c r="D44" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -6341,9 +6492,12 @@
       <c r="B45" t="s">
         <v>287</v>
       </c>
+      <c r="C45" t="s">
+        <v>287</v>
+      </c>
       <c r="D45" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -6353,9 +6507,12 @@
       <c r="B46" t="s">
         <v>288</v>
       </c>
+      <c r="C46" t="s">
+        <v>288</v>
+      </c>
       <c r="D46" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -6365,9 +6522,12 @@
       <c r="B47" t="s">
         <v>289</v>
       </c>
+      <c r="C47" t="s">
+        <v>289</v>
+      </c>
       <c r="D47" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -6377,9 +6537,12 @@
       <c r="B48" t="s">
         <v>290</v>
       </c>
+      <c r="C48" t="s">
+        <v>290</v>
+      </c>
       <c r="D48" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -6389,9 +6552,12 @@
       <c r="B49" t="s">
         <v>291</v>
       </c>
+      <c r="C49" t="s">
+        <v>291</v>
+      </c>
       <c r="D49" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -6401,9 +6567,12 @@
       <c r="B50" t="s">
         <v>292</v>
       </c>
+      <c r="C50" t="s">
+        <v>292</v>
+      </c>
       <c r="D50" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -6413,9 +6582,12 @@
       <c r="B51" t="s">
         <v>293</v>
       </c>
+      <c r="C51" t="s">
+        <v>293</v>
+      </c>
       <c r="D51" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -6425,6 +6597,9 @@
       <c r="B52" t="s">
         <v>294</v>
       </c>
+      <c r="C52" t="s">
+        <v>530</v>
+      </c>
       <c r="D52" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6437,9 +6612,12 @@
       <c r="B53" t="s">
         <v>79</v>
       </c>
+      <c r="C53" t="s">
+        <v>79</v>
+      </c>
       <c r="D53" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -6461,9 +6639,12 @@
       <c r="B55" t="s">
         <v>48</v>
       </c>
+      <c r="C55" t="s">
+        <v>48</v>
+      </c>
       <c r="D55" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -6473,9 +6654,12 @@
       <c r="B56" t="s">
         <v>296</v>
       </c>
+      <c r="C56" t="s">
+        <v>296</v>
+      </c>
       <c r="D56" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -6485,9 +6669,12 @@
       <c r="B57" t="s">
         <v>297</v>
       </c>
+      <c r="C57" t="s">
+        <v>297</v>
+      </c>
       <c r="D57" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -6497,9 +6684,12 @@
       <c r="B58" t="s">
         <v>298</v>
       </c>
+      <c r="C58" t="s">
+        <v>298</v>
+      </c>
       <c r="D58" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -6509,9 +6699,12 @@
       <c r="B59" t="s">
         <v>299</v>
       </c>
+      <c r="C59" t="s">
+        <v>299</v>
+      </c>
       <c r="D59" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -6521,9 +6714,12 @@
       <c r="B60" t="s">
         <v>300</v>
       </c>
+      <c r="C60" t="s">
+        <v>300</v>
+      </c>
       <c r="D60" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -6533,9 +6729,12 @@
       <c r="B61" t="s">
         <v>301</v>
       </c>
+      <c r="C61" t="s">
+        <v>301</v>
+      </c>
       <c r="D61" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -6545,9 +6744,12 @@
       <c r="B62" t="s">
         <v>148</v>
       </c>
+      <c r="C62" t="s">
+        <v>148</v>
+      </c>
       <c r="D62" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -6557,9 +6759,12 @@
       <c r="B63" t="s">
         <v>302</v>
       </c>
+      <c r="C63" t="s">
+        <v>302</v>
+      </c>
       <c r="D63" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -6569,9 +6774,12 @@
       <c r="B64" t="s">
         <v>303</v>
       </c>
+      <c r="C64" t="s">
+        <v>303</v>
+      </c>
       <c r="D64" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -6581,9 +6789,12 @@
       <c r="B65" t="s">
         <v>304</v>
       </c>
+      <c r="C65" t="s">
+        <v>304</v>
+      </c>
       <c r="D65" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -7324,7 +7535,7 @@
       </c>
       <c r="F129">
         <f>COUNTIF(D2:D126,TRUE)</f>
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="130" spans="5:6" x14ac:dyDescent="0.25">
@@ -7333,7 +7544,7 @@
       </c>
       <c r="F130">
         <f>SUM(F129/125*100)</f>
-        <v>0</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="132" spans="5:6" x14ac:dyDescent="0.25">
@@ -7351,7 +7562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8616,7 +8827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView topLeftCell="A181" workbookViewId="0">

--- a/Exam attempt/Exam Attempt2 (1).xlsx
+++ b/Exam attempt/Exam Attempt2 (1).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stratumhr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyber\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BF8ECB-C570-459D-93CA-6385A7E0E0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$D$1:$D$131</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2'!$D$1:$D$132</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="525">
   <si>
     <t>Slno</t>
   </si>
@@ -1601,37 +1600,19 @@
     <t>WPA3</t>
   </si>
   <si>
-    <t xml:space="preserve">ESP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source IP address </t>
-  </si>
-  <si>
     <t>Stretching</t>
   </si>
   <si>
-    <t xml:space="preserve">Administrative safeguards </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNS spoofing </t>
-  </si>
-  <si>
     <t>The unauthorized disclosure, modification, or use of sensitive data</t>
   </si>
   <si>
     <t>Non-repudiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network layer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T5 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1961,10 +1942,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -3879,17 +3860,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D131" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:D131"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -5813,25 +5794,25 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D132" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="D1:D132"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="35" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5872,7 +5853,7 @@
         <v>247</v>
       </c>
       <c r="D3" t="b">
-        <f t="shared" ref="D3:D66" si="0">IF(B3=C3,TRUE,FALSE)</f>
+        <f t="shared" ref="D3:D67" si="0">IF(B3=C3,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -5884,11 +5865,11 @@
         <v>248</v>
       </c>
       <c r="C4" t="s">
-        <v>522</v>
+        <v>248</v>
       </c>
       <c r="D4" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5899,11 +5880,11 @@
         <v>249</v>
       </c>
       <c r="C5" t="s">
-        <v>523</v>
+        <v>249</v>
       </c>
       <c r="D5" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5974,7 +5955,7 @@
         <v>253</v>
       </c>
       <c r="C10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D10" t="b">
         <f t="shared" si="0"/>
@@ -6004,11 +5985,11 @@
         <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>525</v>
+        <v>255</v>
       </c>
       <c r="D12" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -6199,11 +6180,11 @@
         <v>268</v>
       </c>
       <c r="C25" t="s">
-        <v>526</v>
+        <v>268</v>
       </c>
       <c r="D25" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -6256,7 +6237,7 @@
         <v>272</v>
       </c>
       <c r="C29" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D29" t="b">
         <f t="shared" si="0"/>
@@ -6301,7 +6282,7 @@
         <v>275</v>
       </c>
       <c r="C32" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D32" t="b">
         <f t="shared" si="0"/>
@@ -6463,11 +6444,11 @@
         <v>285</v>
       </c>
       <c r="C43" t="s">
-        <v>529</v>
+        <v>285</v>
       </c>
       <c r="D43" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -6598,11 +6579,11 @@
         <v>294</v>
       </c>
       <c r="C52" t="s">
-        <v>530</v>
+        <v>294</v>
       </c>
       <c r="D52" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -6804,9 +6785,12 @@
       <c r="B66" t="s">
         <v>305</v>
       </c>
+      <c r="C66" t="s">
+        <v>305</v>
+      </c>
       <c r="D66" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -6817,7 +6801,7 @@
         <v>306</v>
       </c>
       <c r="D67" t="b">
-        <f t="shared" ref="D67:D126" si="1">IF(B67=C67,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6828,9 +6812,12 @@
       <c r="B68" t="s">
         <v>307</v>
       </c>
+      <c r="C68" t="s">
+        <v>307</v>
+      </c>
       <c r="D68" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="D68" si="1">IF(B68=C68,TRUE,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -6840,9 +6827,12 @@
       <c r="B69" t="s">
         <v>235</v>
       </c>
+      <c r="C69" t="s">
+        <v>235</v>
+      </c>
       <c r="D69" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(B69=C69,TRUE,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -6852,9 +6842,12 @@
       <c r="B70" t="s">
         <v>308</v>
       </c>
+      <c r="C70" t="s">
+        <v>308</v>
+      </c>
       <c r="D70" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="D67:D126" si="2">IF(B70=C70,TRUE,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -6864,9 +6857,12 @@
       <c r="B71" t="s">
         <v>309</v>
       </c>
+      <c r="C71" t="s">
+        <v>309</v>
+      </c>
       <c r="D71" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -6876,9 +6872,12 @@
       <c r="B72" t="s">
         <v>310</v>
       </c>
+      <c r="C72" t="s">
+        <v>310</v>
+      </c>
       <c r="D72" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -6888,9 +6887,12 @@
       <c r="B73" t="s">
         <v>311</v>
       </c>
+      <c r="C73" t="s">
+        <v>311</v>
+      </c>
       <c r="D73" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -6900,9 +6902,12 @@
       <c r="B74" t="s">
         <v>312</v>
       </c>
+      <c r="C74" t="s">
+        <v>312</v>
+      </c>
       <c r="D74" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -6912,9 +6917,12 @@
       <c r="B75" t="s">
         <v>313</v>
       </c>
+      <c r="C75" t="s">
+        <v>313</v>
+      </c>
       <c r="D75" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -6924,9 +6932,12 @@
       <c r="B76" t="s">
         <v>314</v>
       </c>
+      <c r="C76" t="s">
+        <v>314</v>
+      </c>
       <c r="D76" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -6936,9 +6947,12 @@
       <c r="B77" t="s">
         <v>315</v>
       </c>
+      <c r="C77" t="s">
+        <v>315</v>
+      </c>
       <c r="D77" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -6948,9 +6962,12 @@
       <c r="B78" t="s">
         <v>316</v>
       </c>
+      <c r="C78" t="s">
+        <v>316</v>
+      </c>
       <c r="D78" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -6960,9 +6977,12 @@
       <c r="B79" t="s">
         <v>317</v>
       </c>
+      <c r="C79" t="s">
+        <v>317</v>
+      </c>
       <c r="D79" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -6972,9 +6992,12 @@
       <c r="B80" t="s">
         <v>318</v>
       </c>
+      <c r="C80" t="s">
+        <v>318</v>
+      </c>
       <c r="D80" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -6984,9 +7007,12 @@
       <c r="B81" t="s">
         <v>319</v>
       </c>
+      <c r="C81" t="s">
+        <v>319</v>
+      </c>
       <c r="D81" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -6996,9 +7022,12 @@
       <c r="B82" t="s">
         <v>320</v>
       </c>
+      <c r="C82" t="s">
+        <v>320</v>
+      </c>
       <c r="D82" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -7008,9 +7037,12 @@
       <c r="B83" t="s">
         <v>321</v>
       </c>
+      <c r="C83" t="s">
+        <v>321</v>
+      </c>
       <c r="D83" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -7020,9 +7052,12 @@
       <c r="B84" t="s">
         <v>322</v>
       </c>
+      <c r="C84" t="s">
+        <v>322</v>
+      </c>
       <c r="D84" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -7032,9 +7067,12 @@
       <c r="B85" t="s">
         <v>323</v>
       </c>
+      <c r="C85" t="s">
+        <v>323</v>
+      </c>
       <c r="D85" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -7044,9 +7082,12 @@
       <c r="B86" t="s">
         <v>324</v>
       </c>
+      <c r="C86" t="s">
+        <v>324</v>
+      </c>
       <c r="D86" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -7056,9 +7097,12 @@
       <c r="B87" t="s">
         <v>325</v>
       </c>
+      <c r="C87" t="s">
+        <v>325</v>
+      </c>
       <c r="D87" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -7068,9 +7112,12 @@
       <c r="B88" t="s">
         <v>326</v>
       </c>
+      <c r="C88" t="s">
+        <v>326</v>
+      </c>
       <c r="D88" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -7080,9 +7127,12 @@
       <c r="B89" t="s">
         <v>327</v>
       </c>
+      <c r="C89" t="s">
+        <v>327</v>
+      </c>
       <c r="D89" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -7092,9 +7142,12 @@
       <c r="B90" t="s">
         <v>328</v>
       </c>
+      <c r="C90" t="s">
+        <v>328</v>
+      </c>
       <c r="D90" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -7104,9 +7157,12 @@
       <c r="B91" t="s">
         <v>329</v>
       </c>
+      <c r="C91" t="s">
+        <v>329</v>
+      </c>
       <c r="D91" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -7116,9 +7172,12 @@
       <c r="B92" t="s">
         <v>330</v>
       </c>
+      <c r="C92" t="s">
+        <v>330</v>
+      </c>
       <c r="D92" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -7128,9 +7187,12 @@
       <c r="B93" t="s">
         <v>331</v>
       </c>
+      <c r="C93" t="s">
+        <v>331</v>
+      </c>
       <c r="D93" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -7140,9 +7202,12 @@
       <c r="B94" t="s">
         <v>332</v>
       </c>
+      <c r="C94" t="s">
+        <v>332</v>
+      </c>
       <c r="D94" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -7152,9 +7217,12 @@
       <c r="B95" t="s">
         <v>333</v>
       </c>
+      <c r="C95" t="s">
+        <v>333</v>
+      </c>
       <c r="D95" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -7164,9 +7232,12 @@
       <c r="B96" t="s">
         <v>334</v>
       </c>
+      <c r="C96" t="s">
+        <v>334</v>
+      </c>
       <c r="D96" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -7176,9 +7247,12 @@
       <c r="B97" t="s">
         <v>335</v>
       </c>
+      <c r="C97" t="s">
+        <v>335</v>
+      </c>
       <c r="D97" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -7188,9 +7262,12 @@
       <c r="B98" t="s">
         <v>336</v>
       </c>
+      <c r="C98" t="s">
+        <v>336</v>
+      </c>
       <c r="D98" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -7200,9 +7277,12 @@
       <c r="B99" t="s">
         <v>337</v>
       </c>
+      <c r="C99" t="s">
+        <v>337</v>
+      </c>
       <c r="D99" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -7212,9 +7292,12 @@
       <c r="B100" t="s">
         <v>338</v>
       </c>
+      <c r="C100" t="s">
+        <v>338</v>
+      </c>
       <c r="D100" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -7224,9 +7307,12 @@
       <c r="B101" t="s">
         <v>339</v>
       </c>
+      <c r="C101" t="s">
+        <v>339</v>
+      </c>
       <c r="D101" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -7236,9 +7322,12 @@
       <c r="B102" t="s">
         <v>340</v>
       </c>
+      <c r="C102" t="s">
+        <v>340</v>
+      </c>
       <c r="D102" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -7248,9 +7337,12 @@
       <c r="B103" t="s">
         <v>341</v>
       </c>
+      <c r="C103" t="s">
+        <v>341</v>
+      </c>
       <c r="D103" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -7260,9 +7352,12 @@
       <c r="B104" t="s">
         <v>342</v>
       </c>
+      <c r="C104" t="s">
+        <v>342</v>
+      </c>
       <c r="D104" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -7272,9 +7367,12 @@
       <c r="B105" t="s">
         <v>343</v>
       </c>
+      <c r="C105" t="s">
+        <v>343</v>
+      </c>
       <c r="D105" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -7284,9 +7382,12 @@
       <c r="B106" t="s">
         <v>344</v>
       </c>
+      <c r="C106" t="s">
+        <v>344</v>
+      </c>
       <c r="D106" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -7296,9 +7397,12 @@
       <c r="B107" t="s">
         <v>345</v>
       </c>
+      <c r="C107" t="s">
+        <v>345</v>
+      </c>
       <c r="D107" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -7308,9 +7412,12 @@
       <c r="B108" t="s">
         <v>346</v>
       </c>
+      <c r="C108" t="s">
+        <v>346</v>
+      </c>
       <c r="D108" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -7320,9 +7427,12 @@
       <c r="B109" t="s">
         <v>347</v>
       </c>
+      <c r="C109" t="s">
+        <v>347</v>
+      </c>
       <c r="D109" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -7332,9 +7442,12 @@
       <c r="B110" t="s">
         <v>348</v>
       </c>
+      <c r="C110" t="s">
+        <v>348</v>
+      </c>
       <c r="D110" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -7344,9 +7457,12 @@
       <c r="B111" t="s">
         <v>349</v>
       </c>
+      <c r="C111" t="s">
+        <v>349</v>
+      </c>
       <c r="D111" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -7356,9 +7472,12 @@
       <c r="B112" t="s">
         <v>350</v>
       </c>
+      <c r="C112" t="s">
+        <v>350</v>
+      </c>
       <c r="D112" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -7369,7 +7488,7 @@
         <v>351</v>
       </c>
       <c r="D113" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7380,9 +7499,12 @@
       <c r="B114" t="s">
         <v>352</v>
       </c>
+      <c r="C114" t="s">
+        <v>352</v>
+      </c>
       <c r="D114" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -7392,9 +7514,12 @@
       <c r="B115" t="s">
         <v>347</v>
       </c>
+      <c r="C115" t="s">
+        <v>347</v>
+      </c>
       <c r="D115" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -7404,9 +7529,12 @@
       <c r="B116" t="s">
         <v>353</v>
       </c>
+      <c r="C116" t="s">
+        <v>353</v>
+      </c>
       <c r="D116" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -7416,9 +7544,12 @@
       <c r="B117" t="s">
         <v>354</v>
       </c>
+      <c r="C117" t="s">
+        <v>354</v>
+      </c>
       <c r="D117" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -7428,9 +7559,12 @@
       <c r="B118" t="s">
         <v>355</v>
       </c>
+      <c r="C118" t="s">
+        <v>355</v>
+      </c>
       <c r="D118" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -7440,9 +7574,12 @@
       <c r="B119" t="s">
         <v>356</v>
       </c>
+      <c r="C119" t="s">
+        <v>356</v>
+      </c>
       <c r="D119" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -7452,9 +7589,12 @@
       <c r="B120" t="s">
         <v>357</v>
       </c>
+      <c r="C120" t="s">
+        <v>357</v>
+      </c>
       <c r="D120" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -7464,9 +7604,12 @@
       <c r="B121" t="s">
         <v>156</v>
       </c>
+      <c r="C121" t="s">
+        <v>156</v>
+      </c>
       <c r="D121" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -7476,9 +7619,12 @@
       <c r="B122" t="s">
         <v>358</v>
       </c>
+      <c r="C122" t="s">
+        <v>358</v>
+      </c>
       <c r="D122" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -7488,9 +7634,12 @@
       <c r="B123" t="s">
         <v>359</v>
       </c>
+      <c r="C123" t="s">
+        <v>359</v>
+      </c>
       <c r="D123" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -7500,9 +7649,12 @@
       <c r="B124" t="s">
         <v>360</v>
       </c>
+      <c r="C124" t="s">
+        <v>360</v>
+      </c>
       <c r="D124" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -7512,9 +7664,12 @@
       <c r="B125" t="s">
         <v>361</v>
       </c>
+      <c r="C125" t="s">
+        <v>361</v>
+      </c>
       <c r="D125" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -7524,9 +7679,12 @@
       <c r="B126" t="s">
         <v>362</v>
       </c>
+      <c r="C126" t="s">
+        <v>362</v>
+      </c>
       <c r="D126" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="5:6" x14ac:dyDescent="0.25">
@@ -7535,7 +7693,7 @@
       </c>
       <c r="F129">
         <f>COUNTIF(D2:D126,TRUE)</f>
-        <v>51</v>
+        <v>116</v>
       </c>
     </row>
     <row r="130" spans="5:6" x14ac:dyDescent="0.25">
@@ -7544,7 +7702,7 @@
       </c>
       <c r="F130">
         <f>SUM(F129/125*100)</f>
-        <v>40.799999999999997</v>
+        <v>92.800000000000011</v>
       </c>
     </row>
     <row r="132" spans="5:6" x14ac:dyDescent="0.25">
@@ -7553,16 +7711,17 @@
       </c>
       <c r="F132" t="str">
         <f>IF(F129&gt;=92,"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8827,7 +8986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView topLeftCell="A181" workbookViewId="0">

--- a/Exam attempt/Exam Attempt2 (1).xlsx
+++ b/Exam attempt/Exam Attempt2 (1).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyber\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stratumhr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B79AB1-D513-4CC3-A799-E2571319F9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,15 @@
     <sheet name="3" sheetId="4" r:id="rId3"/>
     <sheet name="4" sheetId="2" r:id="rId4"/>
     <sheet name="5" sheetId="7" r:id="rId5"/>
+    <sheet name="Wrong Test" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$D$1:$D$131</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2'!$D$1:$D$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3'!$D$1:$D$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4'!$D$1:$D$107</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="537">
   <si>
     <t>Slno</t>
   </si>
@@ -1607,13 +1611,49 @@
   </si>
   <si>
     <t>Non-repudiation</t>
+  </si>
+  <si>
+    <t>He can find information about the daily outgoing message limits before mailboxes are locked</t>
+  </si>
+  <si>
+    <t>Vulnerability scan -&gt; Identify assets and create a baseline -&gt; Risk assessment -&gt; Remediation -&gt; Verification -&gt; Monitor</t>
+  </si>
+  <si>
+    <t>SMTP</t>
+  </si>
+  <si>
+    <t>Smudge attack</t>
+  </si>
+  <si>
+    <t>NetPass.exe</t>
+  </si>
+  <si>
+    <t>Code Injections</t>
+  </si>
+  <si>
+    <t>SHA-256</t>
+  </si>
+  <si>
+    <t>Peer-to-peer attack</t>
+  </si>
+  <si>
+    <t>Side-channel attack</t>
+  </si>
+  <si>
+    <t>She should scan the network using Nmap to check the MAC addresses of all the hosts and look for duplicates</t>
+  </si>
+  <si>
+    <t>DMZ</t>
+  </si>
+  <si>
+    <t>Host-based Assessments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1625,6 +1665,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1651,7 +1699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1663,6 +1711,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1942,11 +1991,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3860,18 +3909,19 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D131"/>
+  <autoFilter ref="D1:D131" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3897,7 +3947,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3912,7 +3962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3927,7 +3977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3942,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3957,7 +4007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3972,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4002,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4017,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4032,7 +4082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4047,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4062,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4077,7 +4127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4092,7 +4142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4107,7 +4157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4137,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4152,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4167,7 +4217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4182,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4197,7 +4247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4212,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4227,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4242,7 +4292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4257,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4272,7 +4322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4287,7 +4337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4302,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4317,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4332,7 +4382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4347,7 +4397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4362,7 +4412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4377,7 +4427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4392,7 +4442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4407,7 +4457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4422,7 +4472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4437,7 +4487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4452,7 +4502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4467,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4482,7 +4532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4497,7 +4547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4512,7 +4562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4527,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4542,7 +4592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4557,7 +4607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4587,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4647,7 +4697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4662,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4677,7 +4727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4707,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4737,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4752,7 +4802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4767,7 +4817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4782,7 +4832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4797,7 +4847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4812,7 +4862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4827,7 +4877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4842,7 +4892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4857,7 +4907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4872,7 +4922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4887,7 +4937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4902,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4917,7 +4967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4932,7 +4982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4947,7 +4997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4962,7 +5012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4977,7 +5027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -5004,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -5019,7 +5069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -5034,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -5049,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -5064,7 +5114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -5094,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5109,7 +5159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5124,7 +5174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5139,7 +5189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5154,7 +5204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5169,7 +5219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5184,7 +5234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5199,7 +5249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5214,7 +5264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5229,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5244,7 +5294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5259,7 +5309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5274,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5289,7 +5339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5304,7 +5354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5319,7 +5369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5334,7 +5384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5349,7 +5399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5364,7 +5414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5391,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5406,7 +5456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5421,7 +5471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -5436,7 +5486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -5451,7 +5501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -5466,7 +5516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -5481,7 +5531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -5496,7 +5546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -5526,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -5556,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -5571,7 +5621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -5586,7 +5636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -5601,7 +5651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -5616,7 +5666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -5631,7 +5681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -5646,7 +5696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -5661,7 +5711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -5676,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -5691,7 +5741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -5706,7 +5756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -5721,7 +5771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -5736,7 +5786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -5751,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -5766,7 +5816,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="5:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
         <v>461</v>
       </c>
@@ -5775,7 +5827,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
         <v>462</v>
       </c>
@@ -5784,7 +5836,8 @@
         <v>89.600000000000009</v>
       </c>
     </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="5:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
         <v>125</v>
       </c>
@@ -5794,17 +5847,24 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D132"/>
+  <autoFilter ref="D1:D132" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5827,7 +5887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5842,7 +5902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5857,7 +5917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5872,7 +5932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5887,7 +5947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5902,7 +5962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5917,7 +5977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5932,7 +5992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5962,7 +6022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5977,7 +6037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5992,7 +6052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6007,7 +6067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6022,7 +6082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6037,7 +6097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6052,7 +6112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6067,7 +6127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6082,7 +6142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6097,7 +6157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6112,7 +6172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -6127,7 +6187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6142,7 +6202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -6157,7 +6217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -6172,7 +6232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -6199,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -6214,7 +6274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -6244,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -6259,7 +6319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -6289,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -6304,7 +6364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -6331,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -6346,7 +6406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6361,7 +6421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6376,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6391,7 +6451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6406,7 +6466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6436,7 +6496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6451,7 +6511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6466,7 +6526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6481,7 +6541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6496,7 +6556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6511,7 +6571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6526,7 +6586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6541,7 +6601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6556,7 +6616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6571,7 +6631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6586,7 +6646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6613,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6628,7 +6688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6643,7 +6703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6658,7 +6718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6673,7 +6733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -6688,7 +6748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -6703,7 +6763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -6718,7 +6778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -6733,7 +6793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -6748,7 +6808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -6763,7 +6823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -6778,7 +6838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -6805,7 +6865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -6820,7 +6880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -6835,7 +6895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -6846,11 +6906,11 @@
         <v>308</v>
       </c>
       <c r="D70" t="b">
-        <f t="shared" ref="D67:D126" si="2">IF(B70=C70,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D70:D126" si="2">IF(B70=C70,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -6865,7 +6925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -6880,7 +6940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -6895,7 +6955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -6910,7 +6970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -6925,7 +6985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -6940,7 +7000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -6955,7 +7015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -6970,7 +7030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -6985,7 +7045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -7000,7 +7060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -7015,7 +7075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -7030,7 +7090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -7045,7 +7105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -7060,7 +7120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -7075,7 +7135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -7090,7 +7150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -7105,7 +7165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -7120,7 +7180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -7135,7 +7195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -7150,7 +7210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -7165,7 +7225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -7180,7 +7240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -7195,7 +7255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -7210,7 +7270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -7225,7 +7285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -7240,7 +7300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -7255,7 +7315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -7270,7 +7330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -7285,7 +7345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -7300,7 +7360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -7315,7 +7375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -7330,7 +7390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -7345,7 +7405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -7360,7 +7420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -7375,7 +7435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -7390,7 +7450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -7405,7 +7465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -7420,7 +7480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -7435,7 +7495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -7450,7 +7510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -7465,7 +7525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -7492,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -7507,7 +7567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -7522,7 +7582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -7537,7 +7597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -7552,7 +7612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -7567,7 +7627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -7582,7 +7642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -7597,7 +7657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -7612,7 +7672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -7627,7 +7687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -7642,7 +7702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -7657,7 +7717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -7672,7 +7732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -7687,7 +7747,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="5:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
         <v>461</v>
       </c>
@@ -7696,7 +7758,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
         <v>463</v>
       </c>
@@ -7705,7 +7767,8 @@
         <v>92.800000000000011</v>
       </c>
     </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="5:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
         <v>125</v>
       </c>
@@ -7715,17 +7778,1583 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D132" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G107"/>
   <sheetViews>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" t="b">
+        <f>IF(B2=C2,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D3" t="b">
+        <f t="shared" ref="D3:D64" si="0">IF(B3=C3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" t="s">
+        <v>527</v>
+      </c>
+      <c r="D9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" t="s">
+        <v>528</v>
+      </c>
+      <c r="D10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" t="s">
+        <v>372</v>
+      </c>
+      <c r="D11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C13" t="s">
+        <v>374</v>
+      </c>
+      <c r="D13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>375</v>
+      </c>
+      <c r="C14" t="s">
+        <v>375</v>
+      </c>
+      <c r="D14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C15" t="s">
+        <v>376</v>
+      </c>
+      <c r="D15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16" t="s">
+        <v>377</v>
+      </c>
+      <c r="D16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>378</v>
+      </c>
+      <c r="D17" t="b">
+        <f t="shared" ref="D17:D24" si="1">IF(B17=C18,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>379</v>
+      </c>
+      <c r="C18" t="s">
+        <v>379</v>
+      </c>
+      <c r="D18" t="b">
+        <f>IF(B18=C18,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>380</v>
+      </c>
+      <c r="C19" t="s">
+        <v>380</v>
+      </c>
+      <c r="D19" t="b">
+        <f t="shared" ref="D19:D82" si="2">IF(B19=C19,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>381</v>
+      </c>
+      <c r="C20" t="s">
+        <v>381</v>
+      </c>
+      <c r="D20" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>382</v>
+      </c>
+      <c r="C21" t="s">
+        <v>382</v>
+      </c>
+      <c r="D21" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>383</v>
+      </c>
+      <c r="C22" t="s">
+        <v>383</v>
+      </c>
+      <c r="D22" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>384</v>
+      </c>
+      <c r="C23" t="s">
+        <v>384</v>
+      </c>
+      <c r="D23" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>385</v>
+      </c>
+      <c r="C24" t="s">
+        <v>385</v>
+      </c>
+      <c r="D24" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>386</v>
+      </c>
+      <c r="C25" t="s">
+        <v>386</v>
+      </c>
+      <c r="D25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>387</v>
+      </c>
+      <c r="C26" t="s">
+        <v>387</v>
+      </c>
+      <c r="D26" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>340</v>
+      </c>
+      <c r="C27" t="s">
+        <v>340</v>
+      </c>
+      <c r="D27" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>388</v>
+      </c>
+      <c r="C28" t="s">
+        <v>388</v>
+      </c>
+      <c r="D28" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>389</v>
+      </c>
+      <c r="C29" t="s">
+        <v>389</v>
+      </c>
+      <c r="D29" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>390</v>
+      </c>
+      <c r="C30" t="s">
+        <v>390</v>
+      </c>
+      <c r="D30" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>391</v>
+      </c>
+      <c r="C31" t="s">
+        <v>391</v>
+      </c>
+      <c r="D31" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>392</v>
+      </c>
+      <c r="C32" t="s">
+        <v>392</v>
+      </c>
+      <c r="D32" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C33" t="s">
+        <v>393</v>
+      </c>
+      <c r="D33" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>394</v>
+      </c>
+      <c r="C34" t="s">
+        <v>394</v>
+      </c>
+      <c r="D34" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>395</v>
+      </c>
+      <c r="C35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>396</v>
+      </c>
+      <c r="C36" t="s">
+        <v>396</v>
+      </c>
+      <c r="D36" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>397</v>
+      </c>
+      <c r="C37" t="s">
+        <v>397</v>
+      </c>
+      <c r="D37" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>398</v>
+      </c>
+      <c r="C38" t="s">
+        <v>529</v>
+      </c>
+      <c r="D38" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>399</v>
+      </c>
+      <c r="D39" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>400</v>
+      </c>
+      <c r="C40" t="s">
+        <v>400</v>
+      </c>
+      <c r="D40" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>401</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>802.16</v>
+      </c>
+      <c r="C42">
+        <v>802.16</v>
+      </c>
+      <c r="D42" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C43" t="s">
+        <v>402</v>
+      </c>
+      <c r="D43" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>403</v>
+      </c>
+      <c r="C44" t="s">
+        <v>403</v>
+      </c>
+      <c r="D44" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>404</v>
+      </c>
+      <c r="C45" t="s">
+        <v>404</v>
+      </c>
+      <c r="D45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>405</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D46" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>406</v>
+      </c>
+      <c r="C47" t="s">
+        <v>530</v>
+      </c>
+      <c r="D47" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>407</v>
+      </c>
+      <c r="C48" t="s">
+        <v>531</v>
+      </c>
+      <c r="D48" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>408</v>
+      </c>
+      <c r="C49" t="s">
+        <v>408</v>
+      </c>
+      <c r="D49" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>409</v>
+      </c>
+      <c r="C50" t="s">
+        <v>409</v>
+      </c>
+      <c r="D50" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>410</v>
+      </c>
+      <c r="C51" t="s">
+        <v>410</v>
+      </c>
+      <c r="D51" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>411</v>
+      </c>
+      <c r="D52" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>412</v>
+      </c>
+      <c r="C53" t="s">
+        <v>412</v>
+      </c>
+      <c r="D53" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>413</v>
+      </c>
+      <c r="C54" t="s">
+        <v>413</v>
+      </c>
+      <c r="D54" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>414</v>
+      </c>
+      <c r="C55" t="s">
+        <v>532</v>
+      </c>
+      <c r="D55" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>415</v>
+      </c>
+      <c r="C56" t="s">
+        <v>415</v>
+      </c>
+      <c r="D56" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>416</v>
+      </c>
+      <c r="C57" t="s">
+        <v>416</v>
+      </c>
+      <c r="D57" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>417</v>
+      </c>
+      <c r="C58" t="s">
+        <v>533</v>
+      </c>
+      <c r="D58" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>418</v>
+      </c>
+      <c r="C59" t="s">
+        <v>418</v>
+      </c>
+      <c r="D59" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>419</v>
+      </c>
+      <c r="D60" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>420</v>
+      </c>
+      <c r="C61" t="s">
+        <v>420</v>
+      </c>
+      <c r="D61" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>421</v>
+      </c>
+      <c r="C62" t="s">
+        <v>421</v>
+      </c>
+      <c r="D62" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>422</v>
+      </c>
+      <c r="C63" t="s">
+        <v>422</v>
+      </c>
+      <c r="D63" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>423</v>
+      </c>
+      <c r="C64" t="s">
+        <v>423</v>
+      </c>
+      <c r="D64" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>424</v>
+      </c>
+      <c r="D65" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>425</v>
+      </c>
+      <c r="C66" t="s">
+        <v>425</v>
+      </c>
+      <c r="D66" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>426</v>
+      </c>
+      <c r="C67" t="s">
+        <v>426</v>
+      </c>
+      <c r="D67" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>427</v>
+      </c>
+      <c r="C68" t="s">
+        <v>534</v>
+      </c>
+      <c r="D68" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>428</v>
+      </c>
+      <c r="C69" t="s">
+        <v>428</v>
+      </c>
+      <c r="D69" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>429</v>
+      </c>
+      <c r="C70" t="s">
+        <v>429</v>
+      </c>
+      <c r="D70" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>430</v>
+      </c>
+      <c r="C72" t="s">
+        <v>430</v>
+      </c>
+      <c r="D72" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>431</v>
+      </c>
+      <c r="C73" t="s">
+        <v>405</v>
+      </c>
+      <c r="D73" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>432</v>
+      </c>
+      <c r="C74" t="s">
+        <v>432</v>
+      </c>
+      <c r="D74" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>433</v>
+      </c>
+      <c r="C75" t="s">
+        <v>433</v>
+      </c>
+      <c r="D75" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>374</v>
+      </c>
+      <c r="C76" t="s">
+        <v>374</v>
+      </c>
+      <c r="D76" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>434</v>
+      </c>
+      <c r="C77" t="s">
+        <v>434</v>
+      </c>
+      <c r="D77" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>435</v>
+      </c>
+      <c r="C78" t="s">
+        <v>535</v>
+      </c>
+      <c r="D78" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>436</v>
+      </c>
+      <c r="C79" t="s">
+        <v>436</v>
+      </c>
+      <c r="D79" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>437</v>
+      </c>
+      <c r="C80" t="s">
+        <v>437</v>
+      </c>
+      <c r="D80" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>438</v>
+      </c>
+      <c r="C81" t="s">
+        <v>438</v>
+      </c>
+      <c r="D81" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>439</v>
+      </c>
+      <c r="C82" t="s">
+        <v>439</v>
+      </c>
+      <c r="D82" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>440</v>
+      </c>
+      <c r="C83" t="s">
+        <v>440</v>
+      </c>
+      <c r="D83" t="b">
+        <f t="shared" ref="D83:D101" si="3">IF(B83=C83,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>133</v>
+      </c>
+      <c r="C84" t="s">
+        <v>133</v>
+      </c>
+      <c r="D84" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>441</v>
+      </c>
+      <c r="C85" t="s">
+        <v>441</v>
+      </c>
+      <c r="D85" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>212</v>
+      </c>
+      <c r="C86" t="s">
+        <v>212</v>
+      </c>
+      <c r="D86" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>442</v>
+      </c>
+      <c r="C87" t="s">
+        <v>48</v>
+      </c>
+      <c r="D87" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>443</v>
+      </c>
+      <c r="C88" t="s">
+        <v>443</v>
+      </c>
+      <c r="D88" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>444</v>
+      </c>
+      <c r="C89" t="s">
+        <v>444</v>
+      </c>
+      <c r="D89" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>445</v>
+      </c>
+      <c r="C90" t="s">
+        <v>445</v>
+      </c>
+      <c r="D90" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>446</v>
+      </c>
+      <c r="D91" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>447</v>
+      </c>
+      <c r="C92" t="s">
+        <v>447</v>
+      </c>
+      <c r="D92" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>448</v>
+      </c>
+      <c r="C93" t="s">
+        <v>448</v>
+      </c>
+      <c r="D93" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>449</v>
+      </c>
+      <c r="C94" t="s">
+        <v>449</v>
+      </c>
+      <c r="D94" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>450</v>
+      </c>
+      <c r="C95" t="s">
+        <v>536</v>
+      </c>
+      <c r="D95" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>451</v>
+      </c>
+      <c r="C96" t="s">
+        <v>451</v>
+      </c>
+      <c r="D96" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>452</v>
+      </c>
+      <c r="C97" t="s">
+        <v>452</v>
+      </c>
+      <c r="D97" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>453</v>
+      </c>
+      <c r="C98" t="s">
+        <v>453</v>
+      </c>
+      <c r="D98" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>454</v>
+      </c>
+      <c r="C99" t="s">
+        <v>535</v>
+      </c>
+      <c r="D99" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C100" t="s">
+        <v>31</v>
+      </c>
+      <c r="D100" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>455</v>
+      </c>
+      <c r="C101" t="s">
+        <v>455</v>
+      </c>
+      <c r="D101" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <f>COUNTIF(D2:D101,TRUE)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>456</v>
+      </c>
+      <c r="G104">
+        <f>SUM(D102)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>457</v>
+      </c>
+      <c r="G105">
+        <f>SUM(G104/100*100)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>458</v>
+      </c>
+      <c r="G107" t="str">
+        <f>IF(G104&gt;=73,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="D1:D107" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J195"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G195" sqref="G195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7752,7 +9381,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>208</v>
       </c>
       <c r="D2" t="b">
         <f>IF(B2=C2,TRUE,FALSE)</f>
@@ -7764,7 +9393,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>231</v>
       </c>
       <c r="D3" t="b">
         <f t="shared" ref="D3:D66" si="0">IF(B3=C3,TRUE,FALSE)</f>
@@ -7776,7 +9405,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>365</v>
+        <v>218</v>
       </c>
       <c r="D4" t="b">
         <f t="shared" si="0"/>
@@ -7788,7 +9417,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>143</v>
       </c>
       <c r="D5" t="b">
         <f t="shared" si="0"/>
@@ -7800,7 +9429,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>367</v>
+        <v>217</v>
       </c>
       <c r="D6" t="b">
         <f t="shared" si="0"/>
@@ -7812,7 +9441,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>368</v>
+        <v>236</v>
       </c>
       <c r="D7" t="b">
         <f t="shared" si="0"/>
@@ -7824,7 +9453,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>369</v>
+        <v>229</v>
       </c>
       <c r="D8" t="b">
         <f t="shared" si="0"/>
@@ -7836,7 +9465,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
+        <v>464</v>
       </c>
       <c r="D9" t="b">
         <f t="shared" si="0"/>
@@ -7848,7 +9477,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>371</v>
+        <v>188</v>
       </c>
       <c r="D10" t="b">
         <f t="shared" si="0"/>
@@ -7860,7 +9489,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>372</v>
+        <v>174</v>
       </c>
       <c r="D11" t="b">
         <f t="shared" si="0"/>
@@ -7872,7 +9501,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>373</v>
+        <v>215</v>
       </c>
       <c r="D12" t="b">
         <f t="shared" si="0"/>
@@ -7884,7 +9513,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>374</v>
+        <v>224</v>
       </c>
       <c r="D13" t="b">
         <f t="shared" si="0"/>
@@ -7896,7 +9525,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>375</v>
+        <v>465</v>
       </c>
       <c r="D14" t="b">
         <f t="shared" si="0"/>
@@ -7908,7 +9537,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>376</v>
+        <v>168</v>
       </c>
       <c r="D15" t="b">
         <f t="shared" si="0"/>
@@ -7920,7 +9549,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>377</v>
+        <v>466</v>
       </c>
       <c r="D16" t="b">
         <f t="shared" si="0"/>
@@ -7932,7 +9561,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>378</v>
+        <v>467</v>
       </c>
       <c r="D17" t="b">
         <f t="shared" si="0"/>
@@ -7944,7 +9573,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>379</v>
+        <v>149</v>
       </c>
       <c r="D18" t="b">
         <f t="shared" si="0"/>
@@ -7956,7 +9585,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>380</v>
+        <v>172</v>
       </c>
       <c r="D19" t="b">
         <f t="shared" si="0"/>
@@ -7968,7 +9597,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>381</v>
+        <v>204</v>
       </c>
       <c r="D20" t="b">
         <f t="shared" si="0"/>
@@ -7980,7 +9609,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>382</v>
+        <v>160</v>
       </c>
       <c r="D21" t="b">
         <f t="shared" si="0"/>
@@ -7992,7 +9621,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>383</v>
+        <v>147</v>
       </c>
       <c r="D22" t="b">
         <f t="shared" si="0"/>
@@ -8004,7 +9633,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>384</v>
+        <v>468</v>
       </c>
       <c r="D23" t="b">
         <f t="shared" si="0"/>
@@ -8016,7 +9645,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>385</v>
+        <v>212</v>
       </c>
       <c r="D24" t="b">
         <f t="shared" si="0"/>
@@ -8027,8 +9656,8 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>386</v>
+      <c r="B25">
+        <v>128</v>
       </c>
       <c r="D25" t="b">
         <f t="shared" si="0"/>
@@ -8040,7 +9669,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>387</v>
+        <v>170</v>
       </c>
       <c r="D26" t="b">
         <f t="shared" si="0"/>
@@ -8052,7 +9681,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>340</v>
+        <v>234</v>
       </c>
       <c r="D27" t="b">
         <f t="shared" si="0"/>
@@ -8064,7 +9693,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>388</v>
+        <v>175</v>
       </c>
       <c r="D28" t="b">
         <f t="shared" si="0"/>
@@ -8076,7 +9705,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>389</v>
+        <v>152</v>
       </c>
       <c r="D29" t="b">
         <f t="shared" si="0"/>
@@ -8088,7 +9717,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>390</v>
+        <v>469</v>
       </c>
       <c r="D30" t="b">
         <f t="shared" si="0"/>
@@ -8100,7 +9729,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>391</v>
+        <v>241</v>
       </c>
       <c r="D31" t="b">
         <f t="shared" si="0"/>
@@ -8112,7 +9741,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="D32" t="b">
         <f t="shared" si="0"/>
@@ -8124,7 +9753,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>393</v>
+        <v>203</v>
       </c>
       <c r="D33" t="b">
         <f t="shared" si="0"/>
@@ -8136,7 +9765,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>394</v>
+        <v>470</v>
       </c>
       <c r="D34" t="b">
         <f t="shared" si="0"/>
@@ -8148,7 +9777,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>395</v>
+        <v>132</v>
       </c>
       <c r="D35" t="b">
         <f t="shared" si="0"/>
@@ -8160,7 +9789,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>396</v>
+        <v>471</v>
       </c>
       <c r="D36" t="b">
         <f t="shared" si="0"/>
@@ -8172,7 +9801,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>397</v>
+        <v>198</v>
       </c>
       <c r="D37" t="b">
         <f t="shared" si="0"/>
@@ -8184,7 +9813,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>398</v>
+        <v>472</v>
       </c>
       <c r="D38" t="b">
         <f t="shared" si="0"/>
@@ -8196,7 +9825,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>399</v>
+        <v>202</v>
       </c>
       <c r="D39" t="b">
         <f t="shared" si="0"/>
@@ -8208,7 +9837,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="D40" t="b">
         <f t="shared" si="0"/>
@@ -8220,7 +9849,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>401</v>
+        <v>475</v>
       </c>
       <c r="D41" t="b">
         <f t="shared" si="0"/>
@@ -8231,8 +9860,8 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>802.16</v>
+      <c r="B42" t="s">
+        <v>476</v>
       </c>
       <c r="D42" t="b">
         <f t="shared" si="0"/>
@@ -8244,7 +9873,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>402</v>
+        <v>230</v>
       </c>
       <c r="D43" t="b">
         <f t="shared" si="0"/>
@@ -8256,7 +9885,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>403</v>
+        <v>142</v>
       </c>
       <c r="D44" t="b">
         <f t="shared" si="0"/>
@@ -8268,7 +9897,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>404</v>
+        <v>194</v>
       </c>
       <c r="D45" t="b">
         <f t="shared" si="0"/>
@@ -8280,7 +9909,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>405</v>
+        <v>477</v>
       </c>
       <c r="D46" t="b">
         <f t="shared" si="0"/>
@@ -8292,7 +9921,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>406</v>
+        <v>183</v>
       </c>
       <c r="D47" t="b">
         <f t="shared" si="0"/>
@@ -8304,7 +9933,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>407</v>
+        <v>237</v>
       </c>
       <c r="D48" t="b">
         <f t="shared" si="0"/>
@@ -8316,7 +9945,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>408</v>
+        <v>48</v>
       </c>
       <c r="D49" t="b">
         <f t="shared" si="0"/>
@@ -8328,7 +9957,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="D50" t="b">
         <f t="shared" si="0"/>
@@ -8340,7 +9969,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>410</v>
+        <v>154</v>
       </c>
       <c r="D51" t="b">
         <f t="shared" si="0"/>
@@ -8352,7 +9981,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>411</v>
+        <v>340</v>
       </c>
       <c r="D52" t="b">
         <f t="shared" si="0"/>
@@ -8364,7 +9993,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="D53" t="b">
         <f t="shared" si="0"/>
@@ -8376,7 +10005,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>413</v>
+        <v>479</v>
       </c>
       <c r="D54" t="b">
         <f t="shared" si="0"/>
@@ -8388,7 +10017,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="D55" t="b">
         <f t="shared" si="0"/>
@@ -8400,7 +10029,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
       <c r="D56" t="b">
         <f t="shared" si="0"/>
@@ -8412,7 +10041,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>416</v>
+        <v>482</v>
       </c>
       <c r="D57" t="b">
         <f t="shared" si="0"/>
@@ -8424,7 +10053,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>417</v>
+        <v>195</v>
       </c>
       <c r="D58" t="b">
         <f t="shared" si="0"/>
@@ -8436,7 +10065,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>418</v>
+        <v>483</v>
       </c>
       <c r="D59" t="b">
         <f t="shared" si="0"/>
@@ -8448,7 +10077,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>419</v>
+        <v>484</v>
       </c>
       <c r="D60" t="b">
         <f t="shared" si="0"/>
@@ -8460,7 +10089,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>420</v>
+        <v>219</v>
       </c>
       <c r="D61" t="b">
         <f t="shared" si="0"/>
@@ -8472,7 +10101,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>421</v>
+        <v>131</v>
       </c>
       <c r="D62" t="b">
         <f t="shared" si="0"/>
@@ -8484,7 +10113,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>422</v>
+        <v>233</v>
       </c>
       <c r="D63" t="b">
         <f t="shared" si="0"/>
@@ -8496,7 +10125,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>423</v>
+        <v>244</v>
       </c>
       <c r="D64" t="b">
         <f t="shared" si="0"/>
@@ -8508,7 +10137,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>424</v>
+        <v>485</v>
       </c>
       <c r="D65" t="b">
         <f t="shared" si="0"/>
@@ -8520,7 +10149,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>425</v>
+        <v>486</v>
       </c>
       <c r="D66" t="b">
         <f t="shared" si="0"/>
@@ -8532,10 +10161,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>426</v>
+        <v>487</v>
       </c>
       <c r="D67" t="b">
-        <f t="shared" ref="D67:D101" si="1">IF(B67=C67,TRUE,FALSE)</f>
+        <f t="shared" ref="D67:D130" si="1">IF(B67=C67,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -8544,7 +10173,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>427</v>
+        <v>162</v>
       </c>
       <c r="D68" t="b">
         <f t="shared" si="1"/>
@@ -8556,7 +10185,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>428</v>
+        <v>133</v>
       </c>
       <c r="D69" t="b">
         <f t="shared" si="1"/>
@@ -8568,7 +10197,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>429</v>
+        <v>161</v>
       </c>
       <c r="D70" t="b">
         <f t="shared" si="1"/>
@@ -8580,7 +10209,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="D71" t="b">
         <f t="shared" si="1"/>
@@ -8592,7 +10221,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>430</v>
+        <v>488</v>
       </c>
       <c r="D72" t="b">
         <f t="shared" si="1"/>
@@ -8604,7 +10233,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>431</v>
+        <v>489</v>
       </c>
       <c r="D73" t="b">
         <f t="shared" si="1"/>
@@ -8616,7 +10245,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>432</v>
+        <v>179</v>
       </c>
       <c r="D74" t="b">
         <f t="shared" si="1"/>
@@ -8628,7 +10257,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D75" t="b">
         <f t="shared" si="1"/>
@@ -8640,7 +10269,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>374</v>
+        <v>490</v>
       </c>
       <c r="D76" t="b">
         <f t="shared" si="1"/>
@@ -8652,7 +10281,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>434</v>
+        <v>243</v>
       </c>
       <c r="D77" t="b">
         <f t="shared" si="1"/>
@@ -8664,7 +10293,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="D78" t="b">
         <f t="shared" si="1"/>
@@ -8676,7 +10305,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>436</v>
+        <v>207</v>
       </c>
       <c r="D79" t="b">
         <f t="shared" si="1"/>
@@ -8688,7 +10317,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="D80" t="b">
         <f t="shared" si="1"/>
@@ -8700,7 +10329,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>438</v>
+        <v>397</v>
       </c>
       <c r="D81" t="b">
         <f t="shared" si="1"/>
@@ -8712,7 +10341,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>439</v>
+        <v>157</v>
       </c>
       <c r="D82" t="b">
         <f t="shared" si="1"/>
@@ -8724,7 +10353,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>440</v>
+        <v>200</v>
       </c>
       <c r="D83" t="b">
         <f t="shared" si="1"/>
@@ -8736,7 +10365,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="D84" t="b">
         <f t="shared" si="1"/>
@@ -8748,7 +10377,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="D85" t="b">
         <f t="shared" si="1"/>
@@ -8760,7 +10389,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="D86" t="b">
         <f t="shared" si="1"/>
@@ -8772,7 +10401,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="D87" t="b">
         <f t="shared" si="1"/>
@@ -8784,7 +10413,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>443</v>
+        <v>184</v>
       </c>
       <c r="D88" t="b">
         <f t="shared" si="1"/>
@@ -8796,7 +10425,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>444</v>
+        <v>190</v>
       </c>
       <c r="D89" t="b">
         <f t="shared" si="1"/>
@@ -8808,7 +10437,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="D90" t="b">
         <f t="shared" si="1"/>
@@ -8819,8 +10448,8 @@
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>446</v>
+      <c r="B91">
+        <v>48101</v>
       </c>
       <c r="D91" t="b">
         <f t="shared" si="1"/>
@@ -8832,7 +10461,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>447</v>
+        <v>166</v>
       </c>
       <c r="D92" t="b">
         <f t="shared" si="1"/>
@@ -8844,7 +10473,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="D93" t="b">
         <f t="shared" si="1"/>
@@ -8856,7 +10485,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>449</v>
+        <v>377</v>
       </c>
       <c r="D94" t="b">
         <f t="shared" si="1"/>
@@ -8868,7 +10497,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>450</v>
+        <v>130</v>
       </c>
       <c r="D95" t="b">
         <f t="shared" si="1"/>
@@ -8880,104 +10509,1192 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>451</v>
+        <v>228</v>
       </c>
       <c r="D96" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>452</v>
+        <v>221</v>
       </c>
       <c r="D97" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>453</v>
+        <v>206</v>
       </c>
       <c r="D98" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>454</v>
+        <v>192</v>
       </c>
       <c r="D99" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>496</v>
       </c>
       <c r="D100" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>455</v>
+        <v>216</v>
       </c>
       <c r="D101" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D102">
-        <f>COUNTIF(D2:D101,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F104" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>193</v>
+      </c>
+      <c r="D102" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>169</v>
+      </c>
+      <c r="D103" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>176</v>
+      </c>
+      <c r="D104" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>158</v>
+      </c>
+      <c r="D105" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>222</v>
+      </c>
+      <c r="D106" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>497</v>
+      </c>
+      <c r="D107" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>153</v>
+      </c>
+      <c r="D108" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>189</v>
+      </c>
+      <c r="D109" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>498</v>
+      </c>
+      <c r="D110" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>499</v>
+      </c>
+      <c r="D111" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>181</v>
+      </c>
+      <c r="D112" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>500</v>
+      </c>
+      <c r="D113" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>177</v>
+      </c>
+      <c r="D114" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>144</v>
+      </c>
+      <c r="D115" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>501</v>
+      </c>
+      <c r="D116" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>167</v>
+      </c>
+      <c r="D117" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>210</v>
+      </c>
+      <c r="D118" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>390</v>
+      </c>
+      <c r="D119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>502</v>
+      </c>
+      <c r="D120" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>127</v>
+      </c>
+      <c r="D121" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>171</v>
+      </c>
+      <c r="D122" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>395</v>
+      </c>
+      <c r="D123" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>226</v>
+      </c>
+      <c r="D124" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>195</v>
+      </c>
+      <c r="D125" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>499</v>
+      </c>
+      <c r="D126" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>244</v>
+      </c>
+      <c r="D127" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>184</v>
+      </c>
+      <c r="D128" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>241</v>
+      </c>
+      <c r="D129" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>127</v>
+      </c>
+      <c r="D130" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>236</v>
+      </c>
+      <c r="D131" t="b">
+        <f t="shared" ref="D131:D192" si="2">IF(B131=C131,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>133</v>
+      </c>
+      <c r="D132" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>127</v>
+      </c>
+      <c r="D133" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>186</v>
+      </c>
+      <c r="D134" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>133</v>
+      </c>
+      <c r="D135" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>210</v>
+      </c>
+      <c r="D136" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>226</v>
+      </c>
+      <c r="D137" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>468</v>
+      </c>
+      <c r="D138" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>189</v>
+      </c>
+      <c r="D139" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>479</v>
+      </c>
+      <c r="D140" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>229</v>
+      </c>
+      <c r="D141" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>243</v>
+      </c>
+      <c r="D142" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>206</v>
+      </c>
+      <c r="D143" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>204</v>
+      </c>
+      <c r="D144" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>158</v>
+      </c>
+      <c r="D145" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>224</v>
+      </c>
+      <c r="D146" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>487</v>
+      </c>
+      <c r="D147" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>390</v>
+      </c>
+      <c r="D148" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>144</v>
+      </c>
+      <c r="D149" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>222</v>
+      </c>
+      <c r="D150" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>149</v>
+      </c>
+      <c r="D151" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>190</v>
+      </c>
+      <c r="D152" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>465</v>
+      </c>
+      <c r="D153" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>176</v>
+      </c>
+      <c r="D154" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>162</v>
+      </c>
+      <c r="D155" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>157</v>
+      </c>
+      <c r="D156" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>236</v>
+      </c>
+      <c r="D157" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>231</v>
+      </c>
+      <c r="D158" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>501</v>
+      </c>
+      <c r="D159" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>234</v>
+      </c>
+      <c r="D160" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>168</v>
+      </c>
+      <c r="D161" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>492</v>
+      </c>
+      <c r="D162" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>494</v>
+      </c>
+      <c r="D163" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>181</v>
+      </c>
+      <c r="D164" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>477</v>
+      </c>
+      <c r="D165" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>488</v>
+      </c>
+      <c r="D166" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>472</v>
+      </c>
+      <c r="D167" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>206</v>
+      </c>
+      <c r="D168" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>397</v>
+      </c>
+      <c r="D169" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>132</v>
+      </c>
+      <c r="D170" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>467</v>
+      </c>
+      <c r="D171" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>174</v>
+      </c>
+      <c r="D172" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>133</v>
+      </c>
+      <c r="D173" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>154</v>
+      </c>
+      <c r="D174" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>161</v>
+      </c>
+      <c r="D175" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>198</v>
+      </c>
+      <c r="D176" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>215</v>
+      </c>
+      <c r="D177" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>498</v>
+      </c>
+      <c r="D178" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>469</v>
+      </c>
+      <c r="D179" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>169</v>
+      </c>
+      <c r="D180" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>226</v>
+      </c>
+      <c r="D181" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>172</v>
+      </c>
+      <c r="D182" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>184</v>
+      </c>
+      <c r="D183" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>153</v>
+      </c>
+      <c r="D184" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>474</v>
+      </c>
+      <c r="D185" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>474</v>
+      </c>
+      <c r="D186" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>192</v>
+      </c>
+      <c r="D187" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>210</v>
+      </c>
+      <c r="D188" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>476</v>
+      </c>
+      <c r="D189" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>170</v>
+      </c>
+      <c r="D190" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>158</v>
+      </c>
+      <c r="D191" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>464</v>
+      </c>
+      <c r="D192" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <f>COUNTIF(D94:D193,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="F194" t="s">
         <v>456</v>
       </c>
-      <c r="G104">
-        <f>SUM(D102)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F105" t="s">
+      <c r="G194">
+        <f>SUM(D192)</f>
+        <v>0</v>
+      </c>
+      <c r="I194" t="s">
+        <v>458</v>
+      </c>
+      <c r="J194" t="str">
+        <f>IF(G104&gt;=160,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="195" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F195" t="s">
         <v>457</v>
       </c>
-      <c r="G105">
-        <f>SUM(G104/125*100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F107" t="s">
-        <v>458</v>
-      </c>
-      <c r="G107" t="str">
-        <f>IF(G104&gt;=92,"PASS","FAIL")</f>
-        <v>FAIL</v>
+      <c r="G195">
+        <f>SUM(G194/191*100)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8985,31 +11702,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J195"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E228D9-1473-437B-B3A1-813AA6825586}">
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="17.5703125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -9017,7 +11737,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>4</v>
       </c>
       <c r="D2" t="b">
         <f>IF(B2=C2,TRUE,FALSE)</f>
@@ -9029,10 +11749,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>6</v>
       </c>
       <c r="D3" t="b">
-        <f t="shared" ref="D3:D66" si="0">IF(B3=C3,TRUE,FALSE)</f>
+        <f t="shared" ref="D3:D61" si="0">IF(B3=C3,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -9041,7 +11761,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="D4" t="b">
         <f t="shared" si="0"/>
@@ -9053,7 +11773,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="D5" t="b">
         <f t="shared" si="0"/>
@@ -9065,7 +11785,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="D6" t="b">
         <f t="shared" si="0"/>
@@ -9077,7 +11797,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>33</v>
       </c>
       <c r="D7" t="b">
         <f t="shared" si="0"/>
@@ -9089,7 +11809,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>35</v>
       </c>
       <c r="D8" t="b">
         <f t="shared" si="0"/>
@@ -9101,7 +11821,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>464</v>
+        <v>37</v>
       </c>
       <c r="D9" t="b">
         <f t="shared" si="0"/>
@@ -9113,7 +11833,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>56</v>
       </c>
       <c r="D10" t="b">
         <f t="shared" si="0"/>
@@ -9125,7 +11845,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="D11" t="b">
         <f t="shared" si="0"/>
@@ -9137,7 +11857,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c r="D12" t="b">
         <f t="shared" si="0"/>
@@ -9149,7 +11869,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="D13" t="b">
         <f t="shared" si="0"/>
@@ -9161,7 +11881,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>465</v>
+        <v>82</v>
       </c>
       <c r="D14" t="b">
         <f t="shared" si="0"/>
@@ -9173,7 +11893,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="D15" t="b">
         <f t="shared" si="0"/>
@@ -9185,7 +11905,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>466</v>
+        <v>105</v>
       </c>
       <c r="D16" t="b">
         <f t="shared" si="0"/>
@@ -9196,8 +11916,8 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>467</v>
+      <c r="B17" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="D17" t="b">
         <f t="shared" si="0"/>
@@ -9209,7 +11929,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D18" t="b">
         <f t="shared" si="0"/>
@@ -9221,7 +11941,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D19" t="b">
         <f t="shared" si="0"/>
@@ -9233,7 +11953,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="D20" t="b">
         <f t="shared" si="0"/>
@@ -9245,7 +11965,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D21" t="b">
         <f t="shared" si="0"/>
@@ -9257,7 +11977,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="D22" t="b">
         <f t="shared" si="0"/>
@@ -9269,7 +11989,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>468</v>
+        <v>177</v>
       </c>
       <c r="D23" t="b">
         <f t="shared" si="0"/>
@@ -9281,7 +12001,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="D24" t="b">
         <f t="shared" si="0"/>
@@ -9292,8 +12012,8 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>128</v>
+      <c r="B25" t="s">
+        <v>195</v>
       </c>
       <c r="D25" t="b">
         <f t="shared" si="0"/>
@@ -9305,7 +12025,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="D26" t="b">
         <f t="shared" si="0"/>
@@ -9317,7 +12037,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="D27" t="b">
         <f t="shared" si="0"/>
@@ -9329,7 +12049,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="D28" t="b">
         <f t="shared" si="0"/>
@@ -9341,7 +12061,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="D29" t="b">
         <f t="shared" si="0"/>
@@ -9353,7 +12073,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>469</v>
+        <v>253</v>
       </c>
       <c r="D30" t="b">
         <f t="shared" si="0"/>
@@ -9365,7 +12085,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="D31" t="b">
         <f t="shared" si="0"/>
@@ -9377,7 +12097,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>373</v>
+        <v>272</v>
       </c>
       <c r="D32" t="b">
         <f t="shared" si="0"/>
@@ -9389,7 +12109,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>203</v>
+        <v>275</v>
       </c>
       <c r="D33" t="b">
         <f t="shared" si="0"/>
@@ -9401,7 +12121,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>470</v>
+        <v>278</v>
       </c>
       <c r="D34" t="b">
         <f t="shared" si="0"/>
@@ -9413,7 +12133,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="D35" t="b">
         <f t="shared" si="0"/>
@@ -9425,7 +12145,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>471</v>
+        <v>295</v>
       </c>
       <c r="D36" t="b">
         <f t="shared" si="0"/>
@@ -9437,7 +12157,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>198</v>
+        <v>306</v>
       </c>
       <c r="D37" t="b">
         <f t="shared" si="0"/>
@@ -9449,7 +12169,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>472</v>
+        <v>351</v>
       </c>
       <c r="D38" t="b">
         <f t="shared" si="0"/>
@@ -9461,7 +12181,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>202</v>
+        <v>366</v>
       </c>
       <c r="D39" t="b">
         <f t="shared" si="0"/>
@@ -9473,7 +12193,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>473</v>
+        <v>367</v>
       </c>
       <c r="D40" t="b">
         <f t="shared" si="0"/>
@@ -9485,7 +12205,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>475</v>
+        <v>370</v>
       </c>
       <c r="D41" t="b">
         <f t="shared" si="0"/>
@@ -9497,7 +12217,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>476</v>
+        <v>371</v>
       </c>
       <c r="D42" t="b">
         <f t="shared" si="0"/>
@@ -9509,7 +12229,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>230</v>
+        <v>378</v>
       </c>
       <c r="D43" t="b">
         <f t="shared" si="0"/>
@@ -9521,7 +12241,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>395</v>
       </c>
       <c r="D44" t="b">
         <f t="shared" si="0"/>
@@ -9533,7 +12253,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>194</v>
+        <v>398</v>
       </c>
       <c r="D45" t="b">
         <f t="shared" si="0"/>
@@ -9545,7 +12265,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>477</v>
+        <v>399</v>
       </c>
       <c r="D46" t="b">
         <f t="shared" si="0"/>
@@ -9557,7 +12277,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>183</v>
+        <v>401</v>
       </c>
       <c r="D47" t="b">
         <f t="shared" si="0"/>
@@ -9569,7 +12289,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>237</v>
+        <v>406</v>
       </c>
       <c r="D48" t="b">
         <f t="shared" si="0"/>
@@ -9581,7 +12301,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>407</v>
       </c>
       <c r="D49" t="b">
         <f t="shared" si="0"/>
@@ -9593,7 +12313,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="D50" t="b">
         <f t="shared" si="0"/>
@@ -9605,7 +12325,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>154</v>
+        <v>414</v>
       </c>
       <c r="D51" t="b">
         <f t="shared" si="0"/>
@@ -9617,7 +12337,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>340</v>
+        <v>417</v>
       </c>
       <c r="D52" t="b">
         <f t="shared" si="0"/>
@@ -9629,7 +12349,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>478</v>
+        <v>419</v>
       </c>
       <c r="D53" t="b">
         <f t="shared" si="0"/>
@@ -9641,7 +12361,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>479</v>
+        <v>424</v>
       </c>
       <c r="D54" t="b">
         <f t="shared" si="0"/>
@@ -9653,7 +12373,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>480</v>
+        <v>427</v>
       </c>
       <c r="D55" t="b">
         <f t="shared" si="0"/>
@@ -9665,7 +12385,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>481</v>
+        <v>431</v>
       </c>
       <c r="D56" t="b">
         <f t="shared" si="0"/>
@@ -9677,7 +12397,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>482</v>
+        <v>435</v>
       </c>
       <c r="D57" t="b">
         <f t="shared" si="0"/>
@@ -9689,7 +12409,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>195</v>
+        <v>442</v>
       </c>
       <c r="D58" t="b">
         <f t="shared" si="0"/>
@@ -9701,7 +12421,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>483</v>
+        <v>446</v>
       </c>
       <c r="D59" t="b">
         <f t="shared" si="0"/>
@@ -9713,7 +12433,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="D60" t="b">
         <f t="shared" si="0"/>
@@ -9725,1612 +12445,38 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>219</v>
+        <v>454</v>
       </c>
       <c r="D61" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>233</v>
-      </c>
-      <c r="D63" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>244</v>
-      </c>
-      <c r="D64" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>485</v>
-      </c>
-      <c r="D65" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>486</v>
-      </c>
-      <c r="D66" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>487</v>
-      </c>
-      <c r="D67" t="b">
-        <f t="shared" ref="D67:D130" si="1">IF(B67=C67,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>162</v>
-      </c>
-      <c r="D68" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>133</v>
-      </c>
-      <c r="D69" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>161</v>
-      </c>
-      <c r="D70" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>186</v>
-      </c>
-      <c r="D71" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>488</v>
-      </c>
-      <c r="D72" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>489</v>
-      </c>
-      <c r="D73" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>179</v>
-      </c>
-      <c r="D74" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>434</v>
-      </c>
-      <c r="D75" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>490</v>
-      </c>
-      <c r="D76" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>243</v>
-      </c>
-      <c r="D77" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>491</v>
-      </c>
-      <c r="D78" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>207</v>
-      </c>
-      <c r="D79" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>492</v>
-      </c>
-      <c r="D80" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>397</v>
-      </c>
-      <c r="D81" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>157</v>
-      </c>
-      <c r="D82" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>200</v>
-      </c>
-      <c r="D83" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>209</v>
-      </c>
-      <c r="D84" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>493</v>
-      </c>
-      <c r="D85" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>134</v>
-      </c>
-      <c r="D86" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>494</v>
-      </c>
-      <c r="D87" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>184</v>
-      </c>
-      <c r="D88" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>190</v>
-      </c>
-      <c r="D89" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>495</v>
-      </c>
-      <c r="D90" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <v>48101</v>
-      </c>
-      <c r="D91" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>166</v>
-      </c>
-      <c r="D92" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>81</v>
-      </c>
-      <c r="D93" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>377</v>
-      </c>
-      <c r="D94" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>130</v>
-      </c>
-      <c r="D95" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>228</v>
-      </c>
-      <c r="D96" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>221</v>
-      </c>
-      <c r="D97" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>206</v>
-      </c>
-      <c r="D98" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>192</v>
-      </c>
-      <c r="D99" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>496</v>
-      </c>
-      <c r="D100" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>216</v>
-      </c>
-      <c r="D101" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>193</v>
-      </c>
-      <c r="D102" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>169</v>
-      </c>
-      <c r="D103" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>176</v>
-      </c>
-      <c r="D104" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>158</v>
-      </c>
-      <c r="D105" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>222</v>
-      </c>
-      <c r="D106" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>497</v>
-      </c>
-      <c r="D107" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>153</v>
-      </c>
-      <c r="D108" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>189</v>
-      </c>
-      <c r="D109" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>498</v>
-      </c>
-      <c r="D110" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>499</v>
-      </c>
-      <c r="D111" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>181</v>
-      </c>
-      <c r="D112" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>500</v>
-      </c>
-      <c r="D113" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>177</v>
-      </c>
-      <c r="D114" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>144</v>
-      </c>
-      <c r="D115" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>501</v>
-      </c>
-      <c r="D116" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>167</v>
-      </c>
-      <c r="D117" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>210</v>
-      </c>
-      <c r="D118" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>390</v>
-      </c>
-      <c r="D119" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>502</v>
-      </c>
-      <c r="D120" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>127</v>
-      </c>
-      <c r="D121" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>171</v>
-      </c>
-      <c r="D122" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>395</v>
-      </c>
-      <c r="D123" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>226</v>
-      </c>
-      <c r="D124" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>195</v>
-      </c>
-      <c r="D125" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
+    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>461</v>
+      </c>
+      <c r="F65">
+        <f>COUNTIF(D2:D61,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>457</v>
+      </c>
+      <c r="F66">
+        <f>SUM(F65/60*100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
         <v>125</v>
       </c>
-      <c r="B126" t="s">
-        <v>499</v>
-      </c>
-      <c r="D126" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>244</v>
-      </c>
-      <c r="D127" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>184</v>
-      </c>
-      <c r="D128" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>128</v>
-      </c>
-      <c r="B129" t="s">
-        <v>241</v>
-      </c>
-      <c r="D129" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>129</v>
-      </c>
-      <c r="B130" t="s">
-        <v>127</v>
-      </c>
-      <c r="D130" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>130</v>
-      </c>
-      <c r="B131" t="s">
-        <v>236</v>
-      </c>
-      <c r="D131" t="b">
-        <f t="shared" ref="D131:D192" si="2">IF(B131=C131,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>131</v>
-      </c>
-      <c r="B132" t="s">
-        <v>133</v>
-      </c>
-      <c r="D132" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>127</v>
-      </c>
-      <c r="D133" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>133</v>
-      </c>
-      <c r="B134" t="s">
-        <v>186</v>
-      </c>
-      <c r="D134" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>134</v>
-      </c>
-      <c r="B135" t="s">
-        <v>133</v>
-      </c>
-      <c r="D135" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>135</v>
-      </c>
-      <c r="B136" t="s">
-        <v>210</v>
-      </c>
-      <c r="D136" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>136</v>
-      </c>
-      <c r="B137" t="s">
-        <v>226</v>
-      </c>
-      <c r="D137" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>137</v>
-      </c>
-      <c r="B138" t="s">
-        <v>468</v>
-      </c>
-      <c r="D138" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>138</v>
-      </c>
-      <c r="B139" t="s">
-        <v>189</v>
-      </c>
-      <c r="D139" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>139</v>
-      </c>
-      <c r="B140" t="s">
-        <v>479</v>
-      </c>
-      <c r="D140" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>140</v>
-      </c>
-      <c r="B141" t="s">
-        <v>229</v>
-      </c>
-      <c r="D141" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>141</v>
-      </c>
-      <c r="B142" t="s">
-        <v>243</v>
-      </c>
-      <c r="D142" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>142</v>
-      </c>
-      <c r="B143" t="s">
-        <v>206</v>
-      </c>
-      <c r="D143" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>143</v>
-      </c>
-      <c r="B144" t="s">
-        <v>204</v>
-      </c>
-      <c r="D144" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>144</v>
-      </c>
-      <c r="B145" t="s">
-        <v>158</v>
-      </c>
-      <c r="D145" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>145</v>
-      </c>
-      <c r="B146" t="s">
-        <v>224</v>
-      </c>
-      <c r="D146" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>146</v>
-      </c>
-      <c r="B147" t="s">
-        <v>487</v>
-      </c>
-      <c r="D147" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>147</v>
-      </c>
-      <c r="B148" t="s">
-        <v>390</v>
-      </c>
-      <c r="D148" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>148</v>
-      </c>
-      <c r="B149" t="s">
-        <v>144</v>
-      </c>
-      <c r="D149" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>149</v>
-      </c>
-      <c r="B150" t="s">
-        <v>222</v>
-      </c>
-      <c r="D150" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>150</v>
-      </c>
-      <c r="B151" t="s">
-        <v>149</v>
-      </c>
-      <c r="D151" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>151</v>
-      </c>
-      <c r="B152" t="s">
-        <v>190</v>
-      </c>
-      <c r="D152" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>152</v>
-      </c>
-      <c r="B153" t="s">
-        <v>465</v>
-      </c>
-      <c r="D153" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>153</v>
-      </c>
-      <c r="B154" t="s">
-        <v>176</v>
-      </c>
-      <c r="D154" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>154</v>
-      </c>
-      <c r="B155" t="s">
-        <v>162</v>
-      </c>
-      <c r="D155" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>155</v>
-      </c>
-      <c r="B156" t="s">
-        <v>157</v>
-      </c>
-      <c r="D156" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>156</v>
-      </c>
-      <c r="B157" t="s">
-        <v>236</v>
-      </c>
-      <c r="D157" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>157</v>
-      </c>
-      <c r="B158" t="s">
-        <v>231</v>
-      </c>
-      <c r="D158" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>158</v>
-      </c>
-      <c r="B159" t="s">
-        <v>501</v>
-      </c>
-      <c r="D159" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>159</v>
-      </c>
-      <c r="B160" t="s">
-        <v>234</v>
-      </c>
-      <c r="D160" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>160</v>
-      </c>
-      <c r="B161" t="s">
-        <v>168</v>
-      </c>
-      <c r="D161" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>161</v>
-      </c>
-      <c r="B162" t="s">
-        <v>492</v>
-      </c>
-      <c r="D162" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>162</v>
-      </c>
-      <c r="B163" t="s">
-        <v>494</v>
-      </c>
-      <c r="D163" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>163</v>
-      </c>
-      <c r="B164" t="s">
-        <v>181</v>
-      </c>
-      <c r="D164" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>164</v>
-      </c>
-      <c r="B165" t="s">
-        <v>477</v>
-      </c>
-      <c r="D165" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>165</v>
-      </c>
-      <c r="B166" t="s">
-        <v>488</v>
-      </c>
-      <c r="D166" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <v>166</v>
-      </c>
-      <c r="B167" t="s">
-        <v>472</v>
-      </c>
-      <c r="D167" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>167</v>
-      </c>
-      <c r="B168" t="s">
-        <v>206</v>
-      </c>
-      <c r="D168" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>168</v>
-      </c>
-      <c r="B169" t="s">
-        <v>397</v>
-      </c>
-      <c r="D169" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>169</v>
-      </c>
-      <c r="B170" t="s">
-        <v>132</v>
-      </c>
-      <c r="D170" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>170</v>
-      </c>
-      <c r="B171" t="s">
-        <v>467</v>
-      </c>
-      <c r="D171" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
-        <v>171</v>
-      </c>
-      <c r="B172" t="s">
-        <v>174</v>
-      </c>
-      <c r="D172" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
-        <v>172</v>
-      </c>
-      <c r="B173" t="s">
-        <v>133</v>
-      </c>
-      <c r="D173" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <v>173</v>
-      </c>
-      <c r="B174" t="s">
-        <v>154</v>
-      </c>
-      <c r="D174" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
-        <v>174</v>
-      </c>
-      <c r="B175" t="s">
-        <v>161</v>
-      </c>
-      <c r="D175" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>175</v>
-      </c>
-      <c r="B176" t="s">
-        <v>198</v>
-      </c>
-      <c r="D176" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>176</v>
-      </c>
-      <c r="B177" t="s">
-        <v>215</v>
-      </c>
-      <c r="D177" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>177</v>
-      </c>
-      <c r="B178" t="s">
-        <v>498</v>
-      </c>
-      <c r="D178" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>178</v>
-      </c>
-      <c r="B179" t="s">
-        <v>469</v>
-      </c>
-      <c r="D179" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>179</v>
-      </c>
-      <c r="B180" t="s">
-        <v>169</v>
-      </c>
-      <c r="D180" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>180</v>
-      </c>
-      <c r="B181" t="s">
-        <v>226</v>
-      </c>
-      <c r="D181" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>181</v>
-      </c>
-      <c r="B182" t="s">
-        <v>172</v>
-      </c>
-      <c r="D182" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <v>182</v>
-      </c>
-      <c r="B183" t="s">
-        <v>184</v>
-      </c>
-      <c r="D183" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>183</v>
-      </c>
-      <c r="B184" t="s">
-        <v>153</v>
-      </c>
-      <c r="D184" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
-        <v>184</v>
-      </c>
-      <c r="B185" t="s">
-        <v>474</v>
-      </c>
-      <c r="D185" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
-        <v>185</v>
-      </c>
-      <c r="B186" t="s">
-        <v>474</v>
-      </c>
-      <c r="D186" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
-        <v>186</v>
-      </c>
-      <c r="B187" t="s">
-        <v>192</v>
-      </c>
-      <c r="D187" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
-        <v>187</v>
-      </c>
-      <c r="B188" t="s">
-        <v>210</v>
-      </c>
-      <c r="D188" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
-        <v>188</v>
-      </c>
-      <c r="B189" t="s">
-        <v>476</v>
-      </c>
-      <c r="D189" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
-        <v>189</v>
-      </c>
-      <c r="B190" t="s">
-        <v>170</v>
-      </c>
-      <c r="D190" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
-        <v>190</v>
-      </c>
-      <c r="B191" t="s">
-        <v>158</v>
-      </c>
-      <c r="D191" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
-        <v>191</v>
-      </c>
-      <c r="B192" t="s">
-        <v>464</v>
-      </c>
-      <c r="D192" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D194">
-        <f>COUNTIF(D94:D193,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="F194" t="s">
-        <v>456</v>
-      </c>
-      <c r="G194">
-        <f>SUM(D192)</f>
-        <v>0</v>
-      </c>
-      <c r="I194" t="s">
-        <v>458</v>
-      </c>
-      <c r="J194" t="str">
-        <f>IF(G104&gt;=160,"PASS","FAIL")</f>
+      <c r="F69" t="str">
+        <f>IF(F65&gt;=44,"PASS","FAIL")</f>
         <v>FAIL</v>
-      </c>
-    </row>
-    <row r="195" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="F195" t="s">
-        <v>457</v>
-      </c>
-      <c r="G195">
-        <f>SUM(G194/191*100)</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
